--- a/biology/Médecine/Jules_Grandclément/Jules_Grandclément.xlsx
+++ b/biology/Médecine/Jules_Grandclément/Jules_Grandclément.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jules_Grandcl%C3%A9ment</t>
+          <t>Jules_Grandclément</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jules Grandclément, né le 14 novembre 1868 aux Bouchoux (Jura) et mort le 15 mars 1935[1], est un médecin populaire français qui fut surnommé le "médecin des pauvres".
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jules Grandclément, né le 14 novembre 1868 aux Bouchoux (Jura) et mort le 15 mars 1935, est un médecin populaire français qui fut surnommé le "médecin des pauvres".
 Il fut maire de la commune de Villeurbanne en France entre 1908 et 1922, dont il dénonça en 1920 l'aspect désordonné, fruit d'une croissance laissée exclusivement à la dynamique interne des différents villages la composant. Ce constat fut l'origine du projet des Gratte-ciel, entamé par Lazare Goujon à partir de 1927.
 </t>
         </is>
